--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW25.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW25.xlsx
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9334500000489999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.6041666670833332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="D162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="E162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="G162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="I162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="J162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="K162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
       <c r="L162" t="n">
-        <v>3.851399998824</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="D251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="G251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="I251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="J251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="K251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
       <c r="L251" t="n">
-        <v>1.2700000000666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>5.4450000005999994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9831,37 +9831,37 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="D257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="E257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="F257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="H257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="I257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="K257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
       <c r="L257" t="n">
-        <v>2.7225000002999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="F269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="I269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="J269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="K269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
       <c r="L269" t="n">
-        <v>2.073528947259</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>1.368389473612</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="D315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="F315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="I315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="J315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="K315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="L315" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="E361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="I361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="J361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="K361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
       <c r="L361" t="n">
-        <v>1.7638157897500002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -14505,37 +14505,37 @@
         <v>379.0</v>
       </c>
       <c r="B380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="D380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="F380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="G380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="H380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="I380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="J380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="K380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="L380" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>1.60474999951</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="E408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="F408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="H408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="I408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="J408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="K408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="L408" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="E415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="F415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="H415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="I415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="J415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="K415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L415" t="n">
-        <v>6.434925000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="E467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="I467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="K467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
       <c r="L467" t="n">
-        <v>0.6702315789119999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -18343,37 +18343,37 @@
         <v>480.0</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="D481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="E481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="G481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="H481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="I481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="J481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="K481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
       <c r="L481" t="n">
-        <v>0.6517</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="482">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="D518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="E518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="H518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="I518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="J518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="K518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
       <c r="L518" t="n">
-        <v>1.1858000001306666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="519">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="D524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="E524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="F524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="H524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="I524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="J524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="K524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
       <c r="L524" t="n">
-        <v>9.348334210033</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>8.02881578905</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>5.23618421025</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21345,37 +21345,37 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="C560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="D560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="E560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="F560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="H560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="I560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="K560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
       <c r="L560" t="n">
-        <v>1.069618420836</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>4.105168420836</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
